--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{999B5889-A6E0-4273-BBFA-F27C733A2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E7CC6-01C0-4671-B66C-17A6DE68C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C436A-BD0D-441A-8CBC-AD5F6BEE2E28}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A8" sqref="A8:A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +620,726 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F1:G5"/>

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E7CC6-01C0-4671-B66C-17A6DE68C2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C447A2-E4DB-4E87-A8A0-F3C29BB91478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -176,8 +176,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>62177</xdr:rowOff>
     </xdr:to>
@@ -227,11 +227,11 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No"/>
     <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name"/>
-    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Timesheet Period"/>
-    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Task"/>
-    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location"/>
-    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Days"/>
-    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Workhours"/>
+    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Task"/>
+    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Location"/>
+    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Total Days"/>
+    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Workhours"/>
+    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Timesheet Period"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -537,17 +537,17 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A151"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -605,19 +605,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C447A2-E4DB-4E87-A8A0-F3C29BB91478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893A2E4-0074-4871-AF07-58EB762CF36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -82,6 +82,9 @@
       </rPr>
       <t>FINANCE MANAGER</t>
     </r>
+  </si>
+  <si>
+    <t>Role</t>
   </si>
 </sst>
 </file>
@@ -222,9 +225,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:G151" totalsRowShown="0">
-  <autoFilter ref="A7:G151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:H151" totalsRowShown="0">
+  <autoFilter ref="A7:H151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No"/>
     <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name"/>
     <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Task"/>
@@ -232,6 +235,7 @@
     <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Total Days"/>
     <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Workhours"/>
     <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Timesheet Period"/>
+    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Role"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C436A-BD0D-441A-8CBC-AD5F6BEE2E28}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +552,10 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -560,8 +565,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -569,8 +575,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -578,8 +585,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -587,8 +595,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -596,8 +605,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -619,48 +629,51 @@
       <c r="G7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1342,9 +1355,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:G5"/>
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="C1:E5"/>
+    <mergeCell ref="F1:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893A2E4-0074-4871-AF07-58EB762CF36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B508D6-66D0-4D5C-88FA-A431D629738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -33,16 +33,10 @@
     <t>Employees Name</t>
   </si>
   <si>
-    <t>Timesheet Period</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>Total Days</t>
   </si>
   <si>
     <t>Total Workhours</t>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>Role</t>
+  </si>
+  <si>
+    <t>Total Mandays</t>
+  </si>
+  <si>
+    <t>Periode</t>
   </si>
 </sst>
 </file>
@@ -231,13 +231,13 @@
     <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No"/>
     <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name"/>
     <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Location"/>
-    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Total Days"/>
-    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Workhours"/>
-    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Timesheet Period"/>
-    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Role"/>
+    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role"/>
+    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location"/>
+    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Mandays"/>
+    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Periode"/>
+    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -541,7 +541,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,17 +549,16 @@
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -615,22 +614,22 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B508D6-66D0-4D5C-88FA-A431D629738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23092066-13AF-4612-B0D8-E9FBBDC70D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fare" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -86,12 +87,40 @@
   <si>
     <t>Periode</t>
   </si>
+  <si>
+    <t>Fare</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>LK</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>WFH</t>
+  </si>
+  <si>
+    <t>Outer Ring</t>
+  </si>
+  <si>
+    <t>Allowances</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +152,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,19 +187,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -179,8 +283,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>62177</xdr:rowOff>
     </xdr:to>
@@ -225,10 +329,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:H151" totalsRowShown="0">
-  <autoFilter ref="A7:H151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:I151" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A7:I151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name"/>
     <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Task"/>
     <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role"/>
@@ -236,8 +340,23 @@
     <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Mandays"/>
     <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Periode"/>
     <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours"/>
+    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(E8, Fare!$B$1:$C$7, 2, FALSE) * F8, "")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:C7" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CFE1CF91-126D-45DD-AD43-7FD828B04E64}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4A17E5A3-C159-4B85-BF8A-FA10A38BF248}" name="Location" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C7F2F1CB-F4BB-4CA6-B0D4-42DBCBA60914}" name="Fare" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -538,818 +657,1425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C436A-BD0D-441A-8CBC-AD5F6BEE2E28}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="I7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="I8" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E8, Fare!$B$1:$C$7, 2, FALSE) * F8, "")</f>
+        <v/>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I9" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E9, Fare!$B$1:'Fare'!$C$7, 2, FALSE) * F9, "")</f>
+        <v/>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I10" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E10, Fare!$B$1:$C$7, 2, FALSE) * F10, "")</f>
+        <v/>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="I11" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E11, Fare!$B$1:$C$7, 2, FALSE) * F11, "")</f>
+        <v/>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="I12" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E12, Fare!$B$1:$C$7, 2, FALSE) * F12, "")</f>
+        <v/>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="I13" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E13, Fare!$B$1:$C$7, 2, FALSE) * F13, "")</f>
+        <v/>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="I14" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E14, Fare!$B$1:$C$7, 2, FALSE) * F14, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="I15" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E15, Fare!$B$1:$C$7, 2, FALSE) * F15, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="I16" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E16, Fare!$B$1:$C$7, 2, FALSE) * F16, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I17" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E17, Fare!$B$1:$C$7, 2, FALSE) * F17, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="I18" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E18, Fare!$B$1:$C$7, 2, FALSE) * F18, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="I19" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E19, Fare!$B$1:$C$7, 2, FALSE) * F19, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="I20" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E20, Fare!$B$1:$C$7, 2, FALSE) * F20, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="I21" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E21, Fare!$B$1:$C$7, 2, FALSE) * F21, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="I22" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E22, Fare!$B$1:$C$7, 2, FALSE) * F22, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I23" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E23, Fare!$B$1:$C$7, 2, FALSE) * F23, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I24" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E24, Fare!$B$1:$C$7, 2, FALSE) * F24, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="I25" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E25, Fare!$B$1:$C$7, 2, FALSE) * F25, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I26" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E26, Fare!$B$1:$C$7, 2, FALSE) * F26, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="I27" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E27, Fare!$B$1:$C$7, 2, FALSE) * F27, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I28" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E28, Fare!$B$1:$C$7, 2, FALSE) * F28, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="I29" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E29, Fare!$B$1:$C$7, 2, FALSE) * F29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="I30" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E30, Fare!$B$1:$C$7, 2, FALSE) * F30, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="I31" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E31, Fare!$B$1:$C$7, 2, FALSE) * F31, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="I32" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E32, Fare!$B$1:$C$7, 2, FALSE) * F32, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="I33" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E33, Fare!$B$1:$C$7, 2, FALSE) * F33, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="I34" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E34, Fare!$B$1:$C$7, 2, FALSE) * F34, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="I35" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E35, Fare!$B$1:$C$7, 2, FALSE) * F35, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I36" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E36, Fare!$B$1:$C$7, 2, FALSE) * F36, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="I37" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E37, Fare!$B$1:$C$7, 2, FALSE) * F37, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="I38" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E38, Fare!$B$1:$C$7, 2, FALSE) * F38, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="I39" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E39, Fare!$B$1:$C$7, 2, FALSE) * F39, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="I40" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E40, Fare!$B$1:$C$7, 2, FALSE) * F40, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="I41" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E41, Fare!$B$1:$C$7, 2, FALSE) * F41, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="I42" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E42, Fare!$B$1:$C$7, 2, FALSE) * F42, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="I43" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E43, Fare!$B$1:$C$7, 2, FALSE) * F43, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="I44" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E44, Fare!$B$1:$C$7, 2, FALSE) * F44, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="I45" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E45, Fare!$B$1:$C$7, 2, FALSE) * F45, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="I46" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E46, Fare!$B$1:$C$7, 2, FALSE) * F46, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="I47" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E47, Fare!$B$1:$C$7, 2, FALSE) * F47, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="I48" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E48, Fare!$B$1:$C$7, 2, FALSE) * F48, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="I49" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E49, Fare!$B$1:$C$7, 2, FALSE) * F49, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="I50" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E50, Fare!$B$1:$C$7, 2, FALSE) * F50, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="I51" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E51, Fare!$B$1:$C$7, 2, FALSE) * F51, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="I52" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E52, Fare!$B$1:$C$7, 2, FALSE) * F52, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="I53" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E53, Fare!$B$1:$C$7, 2, FALSE) * F53, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="I54" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E54, Fare!$B$1:$C$7, 2, FALSE) * F54, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="I55" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E55, Fare!$B$1:$C$7, 2, FALSE) * F55, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="I56" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E56, Fare!$B$1:$C$7, 2, FALSE) * F56, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="I57" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E57, Fare!$B$1:$C$7, 2, FALSE) * F57, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="I58" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E58, Fare!$B$1:$C$7, 2, FALSE) * F58, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="I59" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E59, Fare!$B$1:$C$7, 2, FALSE) * F59, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="I60" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E60, Fare!$B$1:$C$7, 2, FALSE) * F60, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="I61" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E61, Fare!$B$1:$C$7, 2, FALSE) * F61, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="I62" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E62, Fare!$B$1:$C$7, 2, FALSE) * F62, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="I63" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E63, Fare!$B$1:$C$7, 2, FALSE) * F63, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="I64" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E64, Fare!$B$1:$C$7, 2, FALSE) * F64, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="I65" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E65, Fare!$B$1:$C$7, 2, FALSE) * F65, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="I66" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E66, Fare!$B$1:$C$7, 2, FALSE) * F66, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="I67" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E67, Fare!$B$1:$C$7, 2, FALSE) * F67, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="I68" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E68, Fare!$B$1:$C$7, 2, FALSE) * F68, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="I69" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E69, Fare!$B$1:$C$7, 2, FALSE) * F69, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="I70" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E70, Fare!$B$1:$C$7, 2, FALSE) * F70, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="I71" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E71, Fare!$B$1:$C$7, 2, FALSE) * F71, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="I72" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E72, Fare!$B$1:$C$7, 2, FALSE) * F72, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="I73" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E73, Fare!$B$1:$C$7, 2, FALSE) * F73, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="I74" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E74, Fare!$B$1:$C$7, 2, FALSE) * F74, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="I75" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E75, Fare!$B$1:$C$7, 2, FALSE) * F75, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="I76" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E76, Fare!$B$1:$C$7, 2, FALSE) * F76, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="I77" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E77, Fare!$B$1:$C$7, 2, FALSE) * F77, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="I78" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E78, Fare!$B$1:$C$7, 2, FALSE) * F78, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="I79" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E79, Fare!$B$1:$C$7, 2, FALSE) * F79, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="I80" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E80, Fare!$B$1:$C$7, 2, FALSE) * F80, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="I81" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E81, Fare!$B$1:$C$7, 2, FALSE) * F81, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="I82" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E82, Fare!$B$1:$C$7, 2, FALSE) * F82, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="I83" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E83, Fare!$B$1:$C$7, 2, FALSE) * F83, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="I84" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E84, Fare!$B$1:$C$7, 2, FALSE) * F84, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="I85" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E85, Fare!$B$1:$C$7, 2, FALSE) * F85, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="I86" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E86, Fare!$B$1:$C$7, 2, FALSE) * F86, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="I87" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E87, Fare!$B$1:$C$7, 2, FALSE) * F87, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="I88" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E88, Fare!$B$1:$C$7, 2, FALSE) * F88, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="I89" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E89, Fare!$B$1:$C$7, 2, FALSE) * F89, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="I90" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E90, Fare!$B$1:$C$7, 2, FALSE) * F90, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="I91" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E91, Fare!$B$1:$C$7, 2, FALSE) * F91, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="I92" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E92, Fare!$B$1:$C$7, 2, FALSE) * F92, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="I93" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E93, Fare!$B$1:$C$7, 2, FALSE) * F93, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="I94" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E94, Fare!$B$1:$C$7, 2, FALSE) * F94, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="I95" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E95, Fare!$B$1:$C$7, 2, FALSE) * F95, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="I96" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E96, Fare!$B$1:$C$7, 2, FALSE) * F96, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="I97" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E97, Fare!$B$1:$C$7, 2, FALSE) * F97, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="I98" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E98, Fare!$B$1:$C$7, 2, FALSE) * F98, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="I99" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E99, Fare!$B$1:$C$7, 2, FALSE) * F99, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="I100" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E100, Fare!$B$1:$C$7, 2, FALSE) * F100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="I101" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E101, Fare!$B$1:$C$7, 2, FALSE) * F101, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="I102" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E102, Fare!$B$1:$C$7, 2, FALSE) * F102, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="I103" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E103, Fare!$B$1:$C$7, 2, FALSE) * F103, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="I104" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E104, Fare!$B$1:$C$7, 2, FALSE) * F104, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="I105" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E105, Fare!$B$1:$C$7, 2, FALSE) * F105, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="I106" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E106, Fare!$B$1:$C$7, 2, FALSE) * F106, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="I107" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E107, Fare!$B$1:$C$7, 2, FALSE) * F107, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="I108" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E108, Fare!$B$1:$C$7, 2, FALSE) * F108, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="I109" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E109, Fare!$B$1:$C$7, 2, FALSE) * F109, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="I110" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E110, Fare!$B$1:$C$7, 2, FALSE) * F110, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="I111" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E111, Fare!$B$1:$C$7, 2, FALSE) * F111, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="I112" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E112, Fare!$B$1:$C$7, 2, FALSE) * F112, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="I113" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E113, Fare!$B$1:$C$7, 2, FALSE) * F113, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="I114" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E114, Fare!$B$1:$C$7, 2, FALSE) * F114, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="I115" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E115, Fare!$B$1:$C$7, 2, FALSE) * F115, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="I116" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E116, Fare!$B$1:$C$7, 2, FALSE) * F116, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="I117" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E117, Fare!$B$1:$C$7, 2, FALSE) * F117, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="I118" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E118, Fare!$B$1:$C$7, 2, FALSE) * F118, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="I119" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E119, Fare!$B$1:$C$7, 2, FALSE) * F119, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="I120" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E120, Fare!$B$1:$C$7, 2, FALSE) * F120, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="I121" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E121, Fare!$B$1:$C$7, 2, FALSE) * F121, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="I122" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E122, Fare!$B$1:$C$7, 2, FALSE) * F122, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="I123" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E123, Fare!$B$1:$C$7, 2, FALSE) * F123, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="I124" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E124, Fare!$B$1:$C$7, 2, FALSE) * F124, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="I125" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E125, Fare!$B$1:$C$7, 2, FALSE) * F125, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="I126" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E126, Fare!$B$1:$C$7, 2, FALSE) * F126, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="I127" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E127, Fare!$B$1:$C$7, 2, FALSE) * F127, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="I128" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E128, Fare!$B$1:$C$7, 2, FALSE) * F128, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="I129" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E129, Fare!$B$1:$C$7, 2, FALSE) * F129, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="I130" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E130, Fare!$B$1:$C$7, 2, FALSE) * F130, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="I131" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E131, Fare!$B$1:$C$7, 2, FALSE) * F131, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="I132" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E132, Fare!$B$1:$C$7, 2, FALSE) * F132, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="I133" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E133, Fare!$B$1:$C$7, 2, FALSE) * F133, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="I134" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E134, Fare!$B$1:$C$7, 2, FALSE) * F134, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="I135" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E135, Fare!$B$1:$C$7, 2, FALSE) * F135, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="I136" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E136, Fare!$B$1:$C$7, 2, FALSE) * F136, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="I137" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E137, Fare!$B$1:$C$7, 2, FALSE) * F137, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="I138" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E138, Fare!$B$1:$C$7, 2, FALSE) * F138, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="I139" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E139, Fare!$B$1:$C$7, 2, FALSE) * F139, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="I140" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E140, Fare!$B$1:$C$7, 2, FALSE) * F140, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="I141" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E141, Fare!$B$1:$C$7, 2, FALSE) * F141, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="I142" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E142, Fare!$B$1:$C$7, 2, FALSE) * F142, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="I143" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E143, Fare!$B$1:$C$7, 2, FALSE) * F143, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="I144" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E144, Fare!$B$1:$C$7, 2, FALSE) * F144, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="I145" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E145, Fare!$B$1:$C$7, 2, FALSE) * F145, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="I146" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E146, Fare!$B$1:$C$7, 2, FALSE) * F146, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="I147" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E147, Fare!$B$1:$C$7, 2, FALSE) * F147, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="I148" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E148, Fare!$B$1:$C$7, 2, FALSE) * F148, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="I149" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E149, Fare!$B$1:$C$7, 2, FALSE) * F149, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="I150" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E150, Fare!$B$1:$C$7, 2, FALSE) * F150, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>144</v>
+      </c>
+      <c r="I151" s="8" t="str">
+        <f>IFERROR(VLOOKUP(E151, Fare!$B$1:$C$7, 2, FALSE) * F151, "")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1365,4 +2091,102 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1013FD7-DF1F-4B0D-87E8-E3E17ABF755C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>140000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23092066-13AF-4612-B0D8-E9FBBDC70D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F222507-34B9-4D53-BDB4-BAA22A9BE0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -193,12 +193,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -210,15 +204,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -234,6 +231,12 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -256,9 +259,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -329,10 +329,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:I151" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:I151" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A7:I151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name"/>
     <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Task"/>
     <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role"/>
@@ -340,21 +340,19 @@
     <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Mandays"/>
     <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Periode"/>
     <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours"/>
-    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(VLOOKUP(E8, Fare!$B$1:$C$7, 2, FALSE) * F8, "")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C7" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CFE1CF91-126D-45DD-AD43-7FD828B04E64}" name="No" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4A17E5A3-C159-4B85-BF8A-FA10A38BF248}" name="Location" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C7F2F1CB-F4BB-4CA6-B0D4-42DBCBA60914}" name="Fare" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CFE1CF91-126D-45DD-AD43-7FD828B04E64}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4A17E5A3-C159-4B85-BF8A-FA10A38BF248}" name="Location" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C7F2F1CB-F4BB-4CA6-B0D4-42DBCBA60914}" name="Fare" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -660,7 +658,7 @@
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,1402 +679,970 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E8, Fare!$B$1:$C$7, 2, FALSE) * F8, "")</f>
-        <v/>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E9, Fare!$B$1:'Fare'!$C$7, 2, FALSE) * F9, "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E10, Fare!$B$1:$C$7, 2, FALSE) * F10, "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="I11" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E11, Fare!$B$1:$C$7, 2, FALSE) * F11, "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="I12" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E12, Fare!$B$1:$C$7, 2, FALSE) * F12, "")</f>
-        <v/>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="I13" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E13, Fare!$B$1:$C$7, 2, FALSE) * F13, "")</f>
-        <v/>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="I14" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E14, Fare!$B$1:$C$7, 2, FALSE) * F14, "")</f>
-        <v/>
-      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="I15" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E15, Fare!$B$1:$C$7, 2, FALSE) * F15, "")</f>
-        <v/>
-      </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="I16" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E16, Fare!$B$1:$C$7, 2, FALSE) * F16, "")</f>
-        <v/>
-      </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="I17" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E17, Fare!$B$1:$C$7, 2, FALSE) * F17, "")</f>
-        <v/>
-      </c>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="I18" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E18, Fare!$B$1:$C$7, 2, FALSE) * F18, "")</f>
-        <v/>
-      </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="I19" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E19, Fare!$B$1:$C$7, 2, FALSE) * F19, "")</f>
-        <v/>
-      </c>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="I20" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E20, Fare!$B$1:$C$7, 2, FALSE) * F20, "")</f>
-        <v/>
-      </c>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="I21" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E21, Fare!$B$1:$C$7, 2, FALSE) * F21, "")</f>
-        <v/>
-      </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="I22" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E22, Fare!$B$1:$C$7, 2, FALSE) * F22, "")</f>
-        <v/>
-      </c>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="I23" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E23, Fare!$B$1:$C$7, 2, FALSE) * F23, "")</f>
-        <v/>
-      </c>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="I24" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E24, Fare!$B$1:$C$7, 2, FALSE) * F24, "")</f>
-        <v/>
-      </c>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="I25" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E25, Fare!$B$1:$C$7, 2, FALSE) * F25, "")</f>
-        <v/>
-      </c>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="I26" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E26, Fare!$B$1:$C$7, 2, FALSE) * F26, "")</f>
-        <v/>
-      </c>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="I27" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E27, Fare!$B$1:$C$7, 2, FALSE) * F27, "")</f>
-        <v/>
-      </c>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="I28" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E28, Fare!$B$1:$C$7, 2, FALSE) * F28, "")</f>
-        <v/>
-      </c>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="I29" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E29, Fare!$B$1:$C$7, 2, FALSE) * F29, "")</f>
-        <v/>
-      </c>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="I30" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E30, Fare!$B$1:$C$7, 2, FALSE) * F30, "")</f>
-        <v/>
-      </c>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="I31" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E31, Fare!$B$1:$C$7, 2, FALSE) * F31, "")</f>
-        <v/>
-      </c>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="I32" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E32, Fare!$B$1:$C$7, 2, FALSE) * F32, "")</f>
-        <v/>
-      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="I33" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E33, Fare!$B$1:$C$7, 2, FALSE) * F33, "")</f>
-        <v/>
-      </c>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="I34" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E34, Fare!$B$1:$C$7, 2, FALSE) * F34, "")</f>
-        <v/>
-      </c>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="I35" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E35, Fare!$B$1:$C$7, 2, FALSE) * F35, "")</f>
-        <v/>
-      </c>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="I36" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E36, Fare!$B$1:$C$7, 2, FALSE) * F36, "")</f>
-        <v/>
-      </c>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="I37" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E37, Fare!$B$1:$C$7, 2, FALSE) * F37, "")</f>
-        <v/>
-      </c>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>31</v>
       </c>
-      <c r="I38" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E38, Fare!$B$1:$C$7, 2, FALSE) * F38, "")</f>
-        <v/>
-      </c>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>32</v>
       </c>
-      <c r="I39" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E39, Fare!$B$1:$C$7, 2, FALSE) * F39, "")</f>
-        <v/>
-      </c>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>33</v>
       </c>
-      <c r="I40" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E40, Fare!$B$1:$C$7, 2, FALSE) * F40, "")</f>
-        <v/>
-      </c>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>34</v>
       </c>
-      <c r="I41" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E41, Fare!$B$1:$C$7, 2, FALSE) * F41, "")</f>
-        <v/>
-      </c>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>35</v>
       </c>
-      <c r="I42" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E42, Fare!$B$1:$C$7, 2, FALSE) * F42, "")</f>
-        <v/>
-      </c>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>36</v>
       </c>
-      <c r="I43" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E43, Fare!$B$1:$C$7, 2, FALSE) * F43, "")</f>
-        <v/>
-      </c>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>37</v>
       </c>
-      <c r="I44" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E44, Fare!$B$1:$C$7, 2, FALSE) * F44, "")</f>
-        <v/>
-      </c>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>38</v>
       </c>
-      <c r="I45" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E45, Fare!$B$1:$C$7, 2, FALSE) * F45, "")</f>
-        <v/>
-      </c>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>39</v>
       </c>
-      <c r="I46" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E46, Fare!$B$1:$C$7, 2, FALSE) * F46, "")</f>
-        <v/>
-      </c>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40</v>
       </c>
-      <c r="I47" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E47, Fare!$B$1:$C$7, 2, FALSE) * F47, "")</f>
-        <v/>
-      </c>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>41</v>
       </c>
-      <c r="I48" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E48, Fare!$B$1:$C$7, 2, FALSE) * F48, "")</f>
-        <v/>
-      </c>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42</v>
       </c>
-      <c r="I49" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E49, Fare!$B$1:$C$7, 2, FALSE) * F49, "")</f>
-        <v/>
-      </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43</v>
       </c>
-      <c r="I50" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E50, Fare!$B$1:$C$7, 2, FALSE) * F50, "")</f>
-        <v/>
-      </c>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44</v>
       </c>
-      <c r="I51" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E51, Fare!$B$1:$C$7, 2, FALSE) * F51, "")</f>
-        <v/>
-      </c>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45</v>
       </c>
-      <c r="I52" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E52, Fare!$B$1:$C$7, 2, FALSE) * F52, "")</f>
-        <v/>
-      </c>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>46</v>
       </c>
-      <c r="I53" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E53, Fare!$B$1:$C$7, 2, FALSE) * F53, "")</f>
-        <v/>
-      </c>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>47</v>
       </c>
-      <c r="I54" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E54, Fare!$B$1:$C$7, 2, FALSE) * F54, "")</f>
-        <v/>
-      </c>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>48</v>
       </c>
-      <c r="I55" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E55, Fare!$B$1:$C$7, 2, FALSE) * F55, "")</f>
-        <v/>
-      </c>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>49</v>
       </c>
-      <c r="I56" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E56, Fare!$B$1:$C$7, 2, FALSE) * F56, "")</f>
-        <v/>
-      </c>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>50</v>
       </c>
-      <c r="I57" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E57, Fare!$B$1:$C$7, 2, FALSE) * F57, "")</f>
-        <v/>
-      </c>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>51</v>
       </c>
-      <c r="I58" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E58, Fare!$B$1:$C$7, 2, FALSE) * F58, "")</f>
-        <v/>
-      </c>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>52</v>
       </c>
-      <c r="I59" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E59, Fare!$B$1:$C$7, 2, FALSE) * F59, "")</f>
-        <v/>
-      </c>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>53</v>
       </c>
-      <c r="I60" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E60, Fare!$B$1:$C$7, 2, FALSE) * F60, "")</f>
-        <v/>
-      </c>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>54</v>
       </c>
-      <c r="I61" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E61, Fare!$B$1:$C$7, 2, FALSE) * F61, "")</f>
-        <v/>
-      </c>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>55</v>
       </c>
-      <c r="I62" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E62, Fare!$B$1:$C$7, 2, FALSE) * F62, "")</f>
-        <v/>
-      </c>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>56</v>
       </c>
-      <c r="I63" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E63, Fare!$B$1:$C$7, 2, FALSE) * F63, "")</f>
-        <v/>
-      </c>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>57</v>
       </c>
-      <c r="I64" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E64, Fare!$B$1:$C$7, 2, FALSE) * F64, "")</f>
-        <v/>
-      </c>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>58</v>
       </c>
-      <c r="I65" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E65, Fare!$B$1:$C$7, 2, FALSE) * F65, "")</f>
-        <v/>
-      </c>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>59</v>
       </c>
-      <c r="I66" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E66, Fare!$B$1:$C$7, 2, FALSE) * F66, "")</f>
-        <v/>
-      </c>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>60</v>
       </c>
-      <c r="I67" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E67, Fare!$B$1:$C$7, 2, FALSE) * F67, "")</f>
-        <v/>
-      </c>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>61</v>
       </c>
-      <c r="I68" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E68, Fare!$B$1:$C$7, 2, FALSE) * F68, "")</f>
-        <v/>
-      </c>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>62</v>
       </c>
-      <c r="I69" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E69, Fare!$B$1:$C$7, 2, FALSE) * F69, "")</f>
-        <v/>
-      </c>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>63</v>
       </c>
-      <c r="I70" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E70, Fare!$B$1:$C$7, 2, FALSE) * F70, "")</f>
-        <v/>
-      </c>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>64</v>
       </c>
-      <c r="I71" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E71, Fare!$B$1:$C$7, 2, FALSE) * F71, "")</f>
-        <v/>
-      </c>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>65</v>
       </c>
-      <c r="I72" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E72, Fare!$B$1:$C$7, 2, FALSE) * F72, "")</f>
-        <v/>
-      </c>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>66</v>
       </c>
-      <c r="I73" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E73, Fare!$B$1:$C$7, 2, FALSE) * F73, "")</f>
-        <v/>
-      </c>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>67</v>
       </c>
-      <c r="I74" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E74, Fare!$B$1:$C$7, 2, FALSE) * F74, "")</f>
-        <v/>
-      </c>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>68</v>
       </c>
-      <c r="I75" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E75, Fare!$B$1:$C$7, 2, FALSE) * F75, "")</f>
-        <v/>
-      </c>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>69</v>
       </c>
-      <c r="I76" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E76, Fare!$B$1:$C$7, 2, FALSE) * F76, "")</f>
-        <v/>
-      </c>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>70</v>
       </c>
-      <c r="I77" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E77, Fare!$B$1:$C$7, 2, FALSE) * F77, "")</f>
-        <v/>
-      </c>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>71</v>
       </c>
-      <c r="I78" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E78, Fare!$B$1:$C$7, 2, FALSE) * F78, "")</f>
-        <v/>
-      </c>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>72</v>
       </c>
-      <c r="I79" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E79, Fare!$B$1:$C$7, 2, FALSE) * F79, "")</f>
-        <v/>
-      </c>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>73</v>
       </c>
-      <c r="I80" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E80, Fare!$B$1:$C$7, 2, FALSE) * F80, "")</f>
-        <v/>
-      </c>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>74</v>
       </c>
-      <c r="I81" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E81, Fare!$B$1:$C$7, 2, FALSE) * F81, "")</f>
-        <v/>
-      </c>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>75</v>
       </c>
-      <c r="I82" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E82, Fare!$B$1:$C$7, 2, FALSE) * F82, "")</f>
-        <v/>
-      </c>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>76</v>
       </c>
-      <c r="I83" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E83, Fare!$B$1:$C$7, 2, FALSE) * F83, "")</f>
-        <v/>
-      </c>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>77</v>
       </c>
-      <c r="I84" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E84, Fare!$B$1:$C$7, 2, FALSE) * F84, "")</f>
-        <v/>
-      </c>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>78</v>
       </c>
-      <c r="I85" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E85, Fare!$B$1:$C$7, 2, FALSE) * F85, "")</f>
-        <v/>
-      </c>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>79</v>
       </c>
-      <c r="I86" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E86, Fare!$B$1:$C$7, 2, FALSE) * F86, "")</f>
-        <v/>
-      </c>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>80</v>
       </c>
-      <c r="I87" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E87, Fare!$B$1:$C$7, 2, FALSE) * F87, "")</f>
-        <v/>
-      </c>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>81</v>
       </c>
-      <c r="I88" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E88, Fare!$B$1:$C$7, 2, FALSE) * F88, "")</f>
-        <v/>
-      </c>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>82</v>
       </c>
-      <c r="I89" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E89, Fare!$B$1:$C$7, 2, FALSE) * F89, "")</f>
-        <v/>
-      </c>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>83</v>
       </c>
-      <c r="I90" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E90, Fare!$B$1:$C$7, 2, FALSE) * F90, "")</f>
-        <v/>
-      </c>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>84</v>
       </c>
-      <c r="I91" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E91, Fare!$B$1:$C$7, 2, FALSE) * F91, "")</f>
-        <v/>
-      </c>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>85</v>
       </c>
-      <c r="I92" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E92, Fare!$B$1:$C$7, 2, FALSE) * F92, "")</f>
-        <v/>
-      </c>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>86</v>
       </c>
-      <c r="I93" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E93, Fare!$B$1:$C$7, 2, FALSE) * F93, "")</f>
-        <v/>
-      </c>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>87</v>
       </c>
-      <c r="I94" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E94, Fare!$B$1:$C$7, 2, FALSE) * F94, "")</f>
-        <v/>
-      </c>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>88</v>
       </c>
-      <c r="I95" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E95, Fare!$B$1:$C$7, 2, FALSE) * F95, "")</f>
-        <v/>
-      </c>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>89</v>
       </c>
-      <c r="I96" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E96, Fare!$B$1:$C$7, 2, FALSE) * F96, "")</f>
-        <v/>
-      </c>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>90</v>
       </c>
-      <c r="I97" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E97, Fare!$B$1:$C$7, 2, FALSE) * F97, "")</f>
-        <v/>
-      </c>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>91</v>
       </c>
-      <c r="I98" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E98, Fare!$B$1:$C$7, 2, FALSE) * F98, "")</f>
-        <v/>
-      </c>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>92</v>
       </c>
-      <c r="I99" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E99, Fare!$B$1:$C$7, 2, FALSE) * F99, "")</f>
-        <v/>
-      </c>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>93</v>
       </c>
-      <c r="I100" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E100, Fare!$B$1:$C$7, 2, FALSE) * F100, "")</f>
-        <v/>
-      </c>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>94</v>
       </c>
-      <c r="I101" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E101, Fare!$B$1:$C$7, 2, FALSE) * F101, "")</f>
-        <v/>
-      </c>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>95</v>
       </c>
-      <c r="I102" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E102, Fare!$B$1:$C$7, 2, FALSE) * F102, "")</f>
-        <v/>
-      </c>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>96</v>
       </c>
-      <c r="I103" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E103, Fare!$B$1:$C$7, 2, FALSE) * F103, "")</f>
-        <v/>
-      </c>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>97</v>
       </c>
-      <c r="I104" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E104, Fare!$B$1:$C$7, 2, FALSE) * F104, "")</f>
-        <v/>
-      </c>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>98</v>
       </c>
-      <c r="I105" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E105, Fare!$B$1:$C$7, 2, FALSE) * F105, "")</f>
-        <v/>
-      </c>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>99</v>
       </c>
-      <c r="I106" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E106, Fare!$B$1:$C$7, 2, FALSE) * F106, "")</f>
-        <v/>
-      </c>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>100</v>
       </c>
-      <c r="I107" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E107, Fare!$B$1:$C$7, 2, FALSE) * F107, "")</f>
-        <v/>
-      </c>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>101</v>
       </c>
-      <c r="I108" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E108, Fare!$B$1:$C$7, 2, FALSE) * F108, "")</f>
-        <v/>
-      </c>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>102</v>
       </c>
-      <c r="I109" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E109, Fare!$B$1:$C$7, 2, FALSE) * F109, "")</f>
-        <v/>
-      </c>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>103</v>
       </c>
-      <c r="I110" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E110, Fare!$B$1:$C$7, 2, FALSE) * F110, "")</f>
-        <v/>
-      </c>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>104</v>
       </c>
-      <c r="I111" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E111, Fare!$B$1:$C$7, 2, FALSE) * F111, "")</f>
-        <v/>
-      </c>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>105</v>
       </c>
-      <c r="I112" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E112, Fare!$B$1:$C$7, 2, FALSE) * F112, "")</f>
-        <v/>
-      </c>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>106</v>
       </c>
-      <c r="I113" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E113, Fare!$B$1:$C$7, 2, FALSE) * F113, "")</f>
-        <v/>
-      </c>
+      <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>107</v>
       </c>
-      <c r="I114" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E114, Fare!$B$1:$C$7, 2, FALSE) * F114, "")</f>
-        <v/>
-      </c>
+      <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>108</v>
       </c>
-      <c r="I115" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E115, Fare!$B$1:$C$7, 2, FALSE) * F115, "")</f>
-        <v/>
-      </c>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>109</v>
       </c>
-      <c r="I116" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E116, Fare!$B$1:$C$7, 2, FALSE) * F116, "")</f>
-        <v/>
-      </c>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>110</v>
       </c>
-      <c r="I117" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E117, Fare!$B$1:$C$7, 2, FALSE) * F117, "")</f>
-        <v/>
-      </c>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>111</v>
       </c>
-      <c r="I118" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E118, Fare!$B$1:$C$7, 2, FALSE) * F118, "")</f>
-        <v/>
-      </c>
+      <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>112</v>
       </c>
-      <c r="I119" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E119, Fare!$B$1:$C$7, 2, FALSE) * F119, "")</f>
-        <v/>
-      </c>
+      <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>113</v>
       </c>
-      <c r="I120" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E120, Fare!$B$1:$C$7, 2, FALSE) * F120, "")</f>
-        <v/>
-      </c>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>114</v>
       </c>
-      <c r="I121" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E121, Fare!$B$1:$C$7, 2, FALSE) * F121, "")</f>
-        <v/>
-      </c>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>115</v>
       </c>
-      <c r="I122" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E122, Fare!$B$1:$C$7, 2, FALSE) * F122, "")</f>
-        <v/>
-      </c>
+      <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>116</v>
       </c>
-      <c r="I123" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E123, Fare!$B$1:$C$7, 2, FALSE) * F123, "")</f>
-        <v/>
-      </c>
+      <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>117</v>
       </c>
-      <c r="I124" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E124, Fare!$B$1:$C$7, 2, FALSE) * F124, "")</f>
-        <v/>
-      </c>
+      <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>118</v>
       </c>
-      <c r="I125" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E125, Fare!$B$1:$C$7, 2, FALSE) * F125, "")</f>
-        <v/>
-      </c>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>119</v>
       </c>
-      <c r="I126" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E126, Fare!$B$1:$C$7, 2, FALSE) * F126, "")</f>
-        <v/>
-      </c>
+      <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>120</v>
       </c>
-      <c r="I127" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E127, Fare!$B$1:$C$7, 2, FALSE) * F127, "")</f>
-        <v/>
-      </c>
+      <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>121</v>
       </c>
-      <c r="I128" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E128, Fare!$B$1:$C$7, 2, FALSE) * F128, "")</f>
-        <v/>
-      </c>
+      <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>122</v>
       </c>
-      <c r="I129" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E129, Fare!$B$1:$C$7, 2, FALSE) * F129, "")</f>
-        <v/>
-      </c>
+      <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>123</v>
       </c>
-      <c r="I130" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E130, Fare!$B$1:$C$7, 2, FALSE) * F130, "")</f>
-        <v/>
-      </c>
+      <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>124</v>
       </c>
-      <c r="I131" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E131, Fare!$B$1:$C$7, 2, FALSE) * F131, "")</f>
-        <v/>
-      </c>
+      <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>125</v>
       </c>
-      <c r="I132" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E132, Fare!$B$1:$C$7, 2, FALSE) * F132, "")</f>
-        <v/>
-      </c>
+      <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>126</v>
       </c>
-      <c r="I133" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E133, Fare!$B$1:$C$7, 2, FALSE) * F133, "")</f>
-        <v/>
-      </c>
+      <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>127</v>
       </c>
-      <c r="I134" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E134, Fare!$B$1:$C$7, 2, FALSE) * F134, "")</f>
-        <v/>
-      </c>
+      <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>128</v>
       </c>
-      <c r="I135" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E135, Fare!$B$1:$C$7, 2, FALSE) * F135, "")</f>
-        <v/>
-      </c>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>129</v>
       </c>
-      <c r="I136" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E136, Fare!$B$1:$C$7, 2, FALSE) * F136, "")</f>
-        <v/>
-      </c>
+      <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>130</v>
       </c>
-      <c r="I137" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E137, Fare!$B$1:$C$7, 2, FALSE) * F137, "")</f>
-        <v/>
-      </c>
+      <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>131</v>
       </c>
-      <c r="I138" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E138, Fare!$B$1:$C$7, 2, FALSE) * F138, "")</f>
-        <v/>
-      </c>
+      <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>132</v>
       </c>
-      <c r="I139" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E139, Fare!$B$1:$C$7, 2, FALSE) * F139, "")</f>
-        <v/>
-      </c>
+      <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>133</v>
       </c>
-      <c r="I140" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E140, Fare!$B$1:$C$7, 2, FALSE) * F140, "")</f>
-        <v/>
-      </c>
+      <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>134</v>
       </c>
-      <c r="I141" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E141, Fare!$B$1:$C$7, 2, FALSE) * F141, "")</f>
-        <v/>
-      </c>
+      <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>135</v>
       </c>
-      <c r="I142" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E142, Fare!$B$1:$C$7, 2, FALSE) * F142, "")</f>
-        <v/>
-      </c>
+      <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>136</v>
       </c>
-      <c r="I143" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E143, Fare!$B$1:$C$7, 2, FALSE) * F143, "")</f>
-        <v/>
-      </c>
+      <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>137</v>
       </c>
-      <c r="I144" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E144, Fare!$B$1:$C$7, 2, FALSE) * F144, "")</f>
-        <v/>
-      </c>
+      <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>138</v>
       </c>
-      <c r="I145" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E145, Fare!$B$1:$C$7, 2, FALSE) * F145, "")</f>
-        <v/>
-      </c>
+      <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>139</v>
       </c>
-      <c r="I146" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E146, Fare!$B$1:$C$7, 2, FALSE) * F146, "")</f>
-        <v/>
-      </c>
+      <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>140</v>
       </c>
-      <c r="I147" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E147, Fare!$B$1:$C$7, 2, FALSE) * F147, "")</f>
-        <v/>
-      </c>
+      <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>141</v>
       </c>
-      <c r="I148" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E148, Fare!$B$1:$C$7, 2, FALSE) * F148, "")</f>
-        <v/>
-      </c>
+      <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>142</v>
       </c>
-      <c r="I149" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E149, Fare!$B$1:$C$7, 2, FALSE) * F149, "")</f>
-        <v/>
-      </c>
+      <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>143</v>
       </c>
-      <c r="I150" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E150, Fare!$B$1:$C$7, 2, FALSE) * F150, "")</f>
-        <v/>
-      </c>
+      <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>144</v>
       </c>
-      <c r="I151" s="8" t="str">
-        <f>IFERROR(VLOOKUP(E151, Fare!$B$1:$C$7, 2, FALSE) * F151, "")</f>
-        <v/>
-      </c>
+      <c r="I151" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2107,79 +1673,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>200000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>400000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>115000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>140000</v>
       </c>
     </row>

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F222507-34B9-4D53-BDB4-BAA22A9BE0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C8D32-F7C2-428E-8A4C-CE9C80BA86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
   <si>
     <t>Employees Name</t>
-  </si>
-  <si>
-    <t>Task</t>
   </si>
   <si>
     <t>Location</t>
@@ -85,9 +82,6 @@
     <t>Total Mandays</t>
   </si>
   <si>
-    <t>Periode</t>
-  </si>
-  <si>
     <t>Fare</t>
   </si>
   <si>
@@ -111,6 +105,15 @@
   <si>
     <t>Allowances</t>
   </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Mandays</t>
+  </si>
+  <si>
+    <t>Emp Code</t>
+  </si>
 </sst>
 </file>
 
@@ -120,7 +123,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +156,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Cordia New"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="222"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,11 +196,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -201,10 +207,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,7 +225,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -233,10 +243,162 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -246,11 +408,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Cordia New"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="222"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -258,7 +421,7 @@
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,7 +447,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>62177</xdr:rowOff>
     </xdr:to>
@@ -329,24 +492,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:I151" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:I151" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A7:I151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="No" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name"/>
-    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role"/>
-    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location"/>
-    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Total Mandays"/>
-    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Periode"/>
-    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours"/>
-    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="Emp Code" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Project" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Mandays" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Mandays" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}" name="Table145" displayName="Table145" ref="K7:M13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="K7:M13" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C9DFDBFE-C09A-4887-81C1-643369D5D6A2}" name="No" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BF768629-66ED-415C-8416-ACEC1A82AEF6}" name="Location" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{83D0F660-1885-4347-9E15-D4E4D82658D3}" name="Fare" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C7" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}"/>
   <tableColumns count="3">
@@ -658,990 +833,1761 @@
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="7" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="L7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>70000</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="K9" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="2">
+        <v>200000</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2">
+        <v>400000</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2">
+        <v>115000</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="2">
+        <v>45000</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
+      <c r="L13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="2">
+        <v>140000</v>
+      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>9</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>12</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>14</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>16</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>17</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>18</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>19</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>20</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>21</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>22</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>23</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>24</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>25</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>26</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>27</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>28</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>29</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>30</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>31</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>32</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>33</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>34</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>35</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>36</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>37</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>38</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>39</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>40</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>41</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>42</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>43</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>44</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>45</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>46</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>47</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>48</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>49</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>50</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>51</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>52</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>53</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>54</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>55</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>56</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>57</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>58</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>59</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>60</v>
-      </c>
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>61</v>
-      </c>
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>62</v>
-      </c>
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>63</v>
-      </c>
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>64</v>
-      </c>
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>65</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>66</v>
-      </c>
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>67</v>
-      </c>
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>68</v>
-      </c>
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>69</v>
-      </c>
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>70</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>71</v>
-      </c>
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>72</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>73</v>
-      </c>
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>74</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>75</v>
-      </c>
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>76</v>
-      </c>
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>77</v>
-      </c>
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>78</v>
-      </c>
+      <c r="A85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>79</v>
-      </c>
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>80</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>81</v>
-      </c>
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>82</v>
-      </c>
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>83</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>84</v>
-      </c>
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>85</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>86</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>87</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>88</v>
-      </c>
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>89</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>90</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>91</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>92</v>
-      </c>
+      <c r="A99" s="4"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>93</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>94</v>
-      </c>
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>95</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>96</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>97</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>98</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>99</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>100</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>101</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>102</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>103</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>104</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>105</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>106</v>
-      </c>
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>107</v>
-      </c>
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>108</v>
-      </c>
+      <c r="A115" s="4"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>109</v>
-      </c>
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>110</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>111</v>
-      </c>
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>112</v>
-      </c>
+      <c r="A119" s="4"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>113</v>
-      </c>
+      <c r="A120" s="4"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>114</v>
-      </c>
+      <c r="A121" s="4"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>115</v>
-      </c>
+      <c r="A122" s="4"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>116</v>
-      </c>
+      <c r="A123" s="4"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>117</v>
-      </c>
+      <c r="A124" s="4"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>118</v>
-      </c>
+      <c r="A125" s="4"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>119</v>
-      </c>
+      <c r="A126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>120</v>
-      </c>
+      <c r="A127" s="4"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>121</v>
-      </c>
+      <c r="A128" s="4"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>122</v>
-      </c>
+      <c r="A129" s="4"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
       <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>123</v>
-      </c>
+      <c r="A130" s="4"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>124</v>
-      </c>
+      <c r="A131" s="4"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>125</v>
-      </c>
+      <c r="A132" s="4"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>126</v>
-      </c>
+      <c r="A133" s="4"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>127</v>
-      </c>
+      <c r="A134" s="4"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>128</v>
-      </c>
+      <c r="A135" s="4"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>129</v>
-      </c>
+      <c r="A136" s="4"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>130</v>
-      </c>
+      <c r="A137" s="4"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>131</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>132</v>
-      </c>
+      <c r="A139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>133</v>
-      </c>
+      <c r="A140" s="4"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
       <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>134</v>
-      </c>
+      <c r="A141" s="4"/>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
       <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>135</v>
-      </c>
+      <c r="A142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>136</v>
-      </c>
+      <c r="A143" s="4"/>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>137</v>
-      </c>
+      <c r="A144" s="4"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>138</v>
-      </c>
+      <c r="A145" s="4"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>139</v>
-      </c>
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>140</v>
-      </c>
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>141</v>
-      </c>
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
       <c r="I148" s="6"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>142</v>
-      </c>
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>143</v>
-      </c>
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>144</v>
-      </c>
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
       <c r="I151" s="6"/>
     </row>
   </sheetData>
@@ -1653,8 +2599,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1664,7 +2611,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,79 +2620,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>115000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>140000</v>
       </c>
     </row>

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C8D32-F7C2-428E-8A4C-CE9C80BA86A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202A5A8-758E-4D2B-B634-687499266EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -114,6 +114,21 @@
   <si>
     <t>Emp Code</t>
   </si>
+  <si>
+    <t>Associate Consultant</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Team Leader</t>
+  </si>
+  <si>
+    <t>System Integrator</t>
+  </si>
+  <si>
+    <t>Incentive</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +138,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +184,12 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,11 +242,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -492,42 +528,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:I151" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A7:I151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="Emp Code" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Project" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Mandays" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Mandays" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:J151" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A7:J151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="Emp Code" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Project" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Mandays" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Mandays" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Incentive" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}" name="Table145" displayName="Table145" ref="K7:M13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="K7:M13" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}" name="Table145" displayName="Table145" ref="L7:N13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="L7:N13" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C9DFDBFE-C09A-4887-81C1-643369D5D6A2}" name="No" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BF768629-66ED-415C-8416-ACEC1A82AEF6}" name="Location" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{83D0F660-1885-4347-9E15-D4E4D82658D3}" name="Fare" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{C9DFDBFE-C09A-4887-81C1-643369D5D6A2}" name="No" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BF768629-66ED-415C-8416-ACEC1A82AEF6}" name="Location" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{83D0F660-1885-4347-9E15-D4E4D82658D3}" name="Fare" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F0D0A5D-5EB2-472C-AF33-5CE5B845C438}" name="Table1456" displayName="Table1456" ref="L16:N20">
+  <autoFilter ref="L16:N20" xr:uid="{7F0D0A5D-5EB2-472C-AF33-5CE5B845C438}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{500E307E-7C4B-4985-B211-867E62F9848F}" name="No"/>
+    <tableColumn id="2" xr3:uid="{3514B057-96FE-4A29-BBEE-91D7B64734F5}" name="Role"/>
+    <tableColumn id="3" xr3:uid="{376F7C6E-E46D-4EBC-AFB8-B45489530EC5}" name="Fare"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:C7" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CFE1CF91-126D-45DD-AD43-7FD828B04E64}" name="No" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4A17E5A3-C159-4B85-BF8A-FA10A38BF248}" name="Location" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C7F2F1CB-F4BB-4CA6-B0D4-42DBCBA60914}" name="Fare" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CFE1CF91-126D-45DD-AD43-7FD828B04E64}" name="No" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4A17E5A3-C159-4B85-BF8A-FA10A38BF248}" name="Location" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C7F2F1CB-F4BB-4CA6-B0D4-42DBCBA60914}" name="Fare" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -833,7 +882,7 @@
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,13 +895,13 @@
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
     <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,18 +984,20 @@
       <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -956,18 +1007,18 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="K8" s="1">
+      <c r="J8" s="10"/>
+      <c r="L8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>70000</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -977,18 +1028,18 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="K9" s="1">
+      <c r="J9" s="10"/>
+      <c r="L9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>200000</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -998,18 +1049,18 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="K10" s="1">
+      <c r="J10" s="10"/>
+      <c r="L10" s="1">
         <v>3</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>400000</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1019,18 +1070,18 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="K11" s="1">
+      <c r="J11" s="10"/>
+      <c r="L11" s="1">
         <v>4</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>115000</v>
       </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1040,18 +1091,18 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
-      <c r="K12" s="1">
+      <c r="J12" s="10"/>
+      <c r="L12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>45000</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1061,18 +1112,18 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="K13" s="1">
+      <c r="J13" s="10"/>
+      <c r="L13" s="1">
         <v>6</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>140000</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1082,8 +1133,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1093,8 +1145,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1104,8 +1157,18 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="10"/>
+      <c r="L16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1115,8 +1178,18 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="10"/>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1126,8 +1199,18 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="10"/>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="2">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1137,8 +1220,18 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="10"/>
+      <c r="L19" s="1">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1148,8 +1241,18 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="10"/>
+      <c r="L20" s="1">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1159,8 +1262,9 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1170,8 +1274,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1181,8 +1286,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1192,8 +1298,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1203,8 +1310,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1214,8 +1322,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1225,8 +1334,9 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1236,8 +1346,9 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1247,8 +1358,9 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1258,8 +1370,9 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1269,8 +1382,9 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1280,8 +1394,9 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1291,8 +1406,9 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1302,8 +1418,9 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1313,8 +1430,9 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1324,8 +1442,9 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1335,8 +1454,9 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1346,8 +1466,9 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1357,8 +1478,9 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1368,8 +1490,9 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1379,8 +1502,9 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1390,8 +1514,9 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1401,8 +1526,9 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1412,8 +1538,9 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1423,8 +1550,9 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1434,8 +1562,9 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1445,8 +1574,9 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1456,8 +1586,9 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1467,8 +1598,9 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1478,8 +1610,9 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1489,8 +1622,9 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1500,8 +1634,9 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1511,8 +1646,9 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1522,8 +1658,9 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1533,8 +1670,9 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1544,8 +1682,9 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1555,8 +1694,9 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1566,8 +1706,9 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="10"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1577,8 +1718,9 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1588,8 +1730,9 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1599,8 +1742,9 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1610,8 +1754,9 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1621,8 +1766,9 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1632,8 +1778,9 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1643,8 +1790,9 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="10"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1654,8 +1802,9 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1665,8 +1814,9 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="10"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1676,8 +1826,9 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1687,8 +1838,9 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1698,8 +1850,9 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1709,8 +1862,9 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1720,8 +1874,9 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1731,8 +1886,9 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1742,8 +1898,9 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1753,8 +1910,9 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1764,8 +1922,9 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1775,8 +1934,9 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1786,8 +1946,9 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1797,8 +1958,9 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1808,8 +1970,9 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="10"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1819,8 +1982,9 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="10"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1830,8 +1994,9 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="10"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1841,8 +2006,9 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1852,8 +2018,9 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1863,8 +2030,9 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1874,8 +2042,9 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1885,8 +2054,9 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="10"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1896,8 +2066,9 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1907,8 +2078,9 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1918,8 +2090,9 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1929,8 +2102,9 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1940,8 +2114,9 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1951,8 +2126,9 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1962,8 +2138,9 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1973,8 +2150,9 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1984,8 +2162,9 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1995,8 +2174,9 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2006,8 +2186,9 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2017,8 +2198,9 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2028,8 +2210,9 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2039,8 +2222,9 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2050,8 +2234,9 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2061,8 +2246,9 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2072,8 +2258,9 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2083,8 +2270,9 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2094,8 +2282,9 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2105,8 +2294,9 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2116,8 +2306,9 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2127,8 +2318,9 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2138,8 +2330,9 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2149,8 +2342,9 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2160,8 +2354,9 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2171,8 +2366,9 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2182,8 +2378,9 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2193,8 +2390,9 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2204,8 +2402,9 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2215,8 +2414,9 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="6"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2226,8 +2426,9 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2237,8 +2438,9 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2248,8 +2450,9 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2259,8 +2462,9 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2270,8 +2474,9 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2281,8 +2486,9 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -2292,8 +2498,9 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -2303,8 +2510,9 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2314,8 +2522,9 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -2325,8 +2534,9 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -2336,8 +2546,9 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2347,8 +2558,9 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2358,8 +2570,9 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2369,8 +2582,9 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2380,8 +2594,9 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2391,8 +2606,9 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2402,8 +2618,9 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -2413,8 +2630,9 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2424,8 +2642,9 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -2435,8 +2654,9 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -2446,8 +2666,9 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2457,8 +2678,9 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="6"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2468,8 +2690,9 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="6"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2479,8 +2702,9 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2490,8 +2714,9 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -2501,8 +2726,9 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -2512,8 +2738,9 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="6"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -2523,8 +2750,9 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="6"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2534,8 +2762,9 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="6"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -2545,8 +2774,9 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="6"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -2556,8 +2786,9 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="6"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2567,8 +2798,9 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="6"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -2578,8 +2810,9 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="6"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -2589,6 +2822,7 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="6"/>
+      <c r="J151" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2599,9 +2833,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8202A5A8-758E-4D2B-B634-687499266EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78344F4-C21F-488C-BE99-92A806A75188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>Incentive</t>
+  </si>
+  <si>
+    <t>Co-Project Manager</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Project Director</t>
+  </si>
+  <si>
+    <t>Project Administrator</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -239,28 +254,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -279,20 +298,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -482,10 +513,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>62177</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -515,7 +546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2190750" cy="833702"/>
+          <a:ext cx="1409700" cy="536469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -528,55 +559,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:J151" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A7:J151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="Emp Code" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Project" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Mandays" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Mandays" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Incentive" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}" name="Table2" displayName="Table2" ref="A7:K151" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A7:K151" xr:uid="{D33A0D56-6527-4A90-B3F9-21159B1478D5}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{CEAD5ADF-731A-4AA0-BAAF-527959A31385}" name="Emp Code" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{462F6D3C-3041-4D5D-A762-54CA6C772C3E}" name="Employees Name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{79488BE9-A4C6-45F9-8777-83217E03BFB1}" name="Project" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{81356E0E-8EDA-41A3-BD0C-EC5F54BD43AD}" name="Role" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{80C155BE-04B6-4402-9054-8F7A22B61F1E}" name="Location" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{783448AB-6D52-414B-ABEF-31775FE3BBF0}" name="Mandays" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Mandays" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Incentive" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{DDE35058-6D1E-45B8-BA5A-01608ED024EE}" name="Total" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}" name="Table145" displayName="Table145" ref="L7:N13" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="L7:N13" xr:uid="{2032BF4D-962E-419E-8723-4DE94858427D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C969BFC9-EC4C-4EEE-A57A-D96C7B9B7191}" name="Table1457" displayName="Table1457" ref="A1:C7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:C7" xr:uid="{C969BFC9-EC4C-4EEE-A57A-D96C7B9B7191}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C9DFDBFE-C09A-4887-81C1-643369D5D6A2}" name="No" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BF768629-66ED-415C-8416-ACEC1A82AEF6}" name="Location" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{83D0F660-1885-4347-9E15-D4E4D82658D3}" name="Fare" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7A6DC3A2-8668-4493-8B9B-ED539EA07C9E}" name="No" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AAF86543-D55D-4E06-BE8E-6579FC0F9CAE}" name="Location" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7A391600-8DBA-4881-AB97-A319071CFDD8}" name="Fare" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7F0D0A5D-5EB2-472C-AF33-5CE5B845C438}" name="Table1456" displayName="Table1456" ref="L16:N20">
-  <autoFilter ref="L16:N20" xr:uid="{7F0D0A5D-5EB2-472C-AF33-5CE5B845C438}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8189F90-0528-4157-8694-DB516E31DC96}" name="Table14567" displayName="Table14567" ref="A10:C18" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
+  <autoFilter ref="A10:C18" xr:uid="{C8189F90-0528-4157-8694-DB516E31DC96}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{500E307E-7C4B-4985-B211-867E62F9848F}" name="No"/>
-    <tableColumn id="2" xr3:uid="{3514B057-96FE-4A29-BBEE-91D7B64734F5}" name="Role"/>
-    <tableColumn id="3" xr3:uid="{376F7C6E-E46D-4EBC-AFB8-B45489530EC5}" name="Fare"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}" name="Table14" displayName="Table14" ref="A1:C7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:C7" xr:uid="{BD384378-E592-4071-AE1D-F79E6D5BEAF1}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CFE1CF91-126D-45DD-AD43-7FD828B04E64}" name="No" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4A17E5A3-C159-4B85-BF8A-FA10A38BF248}" name="Location" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C7F2F1CB-F4BB-4CA6-B0D4-42DBCBA60914}" name="Fare" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A50AFFEB-DD1B-4B9E-9624-5F16180F136B}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C3F8586F-8FF3-4696-9DF0-ABD4D80E5DD2}" name="Role" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4E19748C-7FDD-47A1-BF1E-AF635AF5105C}" name="Fare" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C436A-BD0D-441A-8CBC-AD5F6BEE2E28}">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,67 +916,82 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -987,17 +1022,14 @@
       <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1007,18 +1039,13 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="10"/>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="2">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1028,18 +1055,13 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="10"/>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1049,18 +1071,13 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="10"/>
-      <c r="L10" s="1">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1070,18 +1087,13 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="10"/>
-      <c r="L11" s="1">
-        <v>4</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="2">
-        <v>115000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1091,18 +1103,13 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="10"/>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="2">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1112,18 +1119,13 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="10"/>
-      <c r="L13" s="1">
-        <v>6</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="2">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1133,9 +1135,10 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1145,9 +1148,10 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1157,18 +1161,13 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="10"/>
-      <c r="L16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1178,18 +1177,13 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="10"/>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1199,18 +1193,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="10"/>
-      <c r="L18" s="1">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" s="2">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1220,18 +1209,13 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="10"/>
-      <c r="L19" s="1">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="2">
-        <v>175000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1241,18 +1225,13 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="10"/>
-      <c r="L20" s="1">
-        <v>4</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="2">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1262,9 +1241,12 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1274,9 +1256,12 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1286,9 +1271,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1298,9 +1286,12 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1310,9 +1301,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1322,9 +1314,10 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1334,9 +1327,10 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1346,9 +1340,10 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1358,9 +1353,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1370,9 +1366,10 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1382,9 +1379,10 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1394,9 +1392,10 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1406,9 +1405,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1418,9 +1418,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1430,9 +1431,10 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="10"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1442,9 +1444,10 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1454,9 +1457,10 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1466,9 +1470,10 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1478,9 +1483,10 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1490,9 +1496,10 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1502,9 +1509,10 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1514,9 +1522,10 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1526,9 +1535,10 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1538,9 +1548,10 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1550,9 +1561,10 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1562,9 +1574,10 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="6"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1574,9 +1587,10 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="6"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1586,9 +1600,10 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1598,9 +1613,10 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1610,9 +1626,10 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1622,9 +1639,10 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1634,9 +1652,10 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1646,9 +1665,10 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1658,9 +1678,10 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="6"/>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1670,9 +1691,10 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1682,9 +1704,10 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1694,9 +1717,10 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1706,9 +1730,10 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1718,9 +1743,10 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1730,9 +1756,10 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="6"/>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1742,9 +1769,10 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1754,9 +1782,10 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="10"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1766,9 +1795,10 @@
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="6"/>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1778,9 +1808,10 @@
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1790,9 +1821,10 @@
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1802,9 +1834,10 @@
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="6"/>
-      <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1814,9 +1847,10 @@
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="10"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1826,9 +1860,10 @@
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="10"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1838,9 +1873,10 @@
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="6"/>
-      <c r="J69" s="10"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1850,9 +1886,10 @@
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="6"/>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1862,9 +1899,10 @@
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1874,9 +1912,10 @@
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="6"/>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1886,9 +1925,10 @@
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="6"/>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1898,9 +1938,10 @@
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="6"/>
-      <c r="J74" s="10"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1910,9 +1951,10 @@
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="6"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1922,9 +1964,10 @@
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="6"/>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1934,9 +1977,10 @@
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="6"/>
-      <c r="J77" s="10"/>
-    </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1946,9 +1990,10 @@
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="6"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1958,9 +2003,10 @@
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="6"/>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1970,9 +2016,10 @@
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="6"/>
-      <c r="J80" s="10"/>
-    </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1982,9 +2029,10 @@
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="6"/>
-      <c r="J81" s="10"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1994,9 +2042,10 @@
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="6"/>
-      <c r="J82" s="10"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -2006,9 +2055,10 @@
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="6"/>
-      <c r="J83" s="10"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -2018,9 +2068,10 @@
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="6"/>
-      <c r="J84" s="10"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2030,9 +2081,10 @@
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="6"/>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -2042,9 +2094,10 @@
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="10"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -2054,9 +2107,10 @@
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="6"/>
-      <c r="J87" s="10"/>
-    </row>
-    <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -2066,9 +2120,10 @@
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="6"/>
-      <c r="J88" s="10"/>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2078,9 +2133,10 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="10"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -2090,9 +2146,10 @@
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="10"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -2102,9 +2159,10 @@
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="10"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -2114,9 +2172,10 @@
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="10"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -2126,9 +2185,10 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -2138,9 +2198,10 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="10"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -2150,9 +2211,10 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2162,9 +2224,10 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -2174,9 +2237,10 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="10"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -2186,9 +2250,10 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="10"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2198,9 +2263,10 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="10"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+    </row>
+    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -2210,9 +2276,10 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+    </row>
+    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2222,9 +2289,10 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="10"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -2234,9 +2302,10 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="10"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -2246,9 +2315,10 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="10"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -2258,9 +2328,10 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="10"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -2270,9 +2341,10 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="10"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -2282,9 +2354,10 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="10"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2294,9 +2367,10 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="10"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -2306,9 +2380,10 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="10"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2318,9 +2393,10 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="10"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2330,9 +2406,10 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -2342,9 +2419,10 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -2354,9 +2432,10 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -2366,9 +2445,10 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="6"/>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -2378,9 +2458,10 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="10"/>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -2390,9 +2471,10 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="10"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -2402,9 +2484,10 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="10"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -2414,9 +2497,10 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="10"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -2426,9 +2510,10 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="10"/>
-    </row>
-    <row r="119" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -2438,9 +2523,10 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="10"/>
-    </row>
-    <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -2450,9 +2536,10 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="10"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+    </row>
+    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -2462,9 +2549,10 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="10"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -2474,9 +2562,10 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="10"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -2486,9 +2575,10 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="6"/>
-      <c r="J123" s="10"/>
-    </row>
-    <row r="124" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+    </row>
+    <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -2498,9 +2588,10 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="10"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+    </row>
+    <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -2510,9 +2601,10 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="10"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -2522,9 +2614,10 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="10"/>
-    </row>
-    <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+    </row>
+    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -2534,9 +2627,10 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="10"/>
-    </row>
-    <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+    </row>
+    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -2546,9 +2640,10 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="10"/>
-    </row>
-    <row r="129" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -2558,9 +2653,10 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="10"/>
-    </row>
-    <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -2570,9 +2666,10 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="10"/>
-    </row>
-    <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+    </row>
+    <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -2582,9 +2679,10 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="10"/>
-    </row>
-    <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+    </row>
+    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -2594,9 +2692,10 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="10"/>
-    </row>
-    <row r="133" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+    </row>
+    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -2606,9 +2705,10 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="10"/>
-    </row>
-    <row r="134" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+    </row>
+    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -2618,9 +2718,10 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="10"/>
-    </row>
-    <row r="135" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+    </row>
+    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -2630,9 +2731,10 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="10"/>
-    </row>
-    <row r="136" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+    </row>
+    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -2642,9 +2744,10 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="10"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+    </row>
+    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -2654,9 +2757,10 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="10"/>
-    </row>
-    <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+    </row>
+    <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -2666,9 +2770,10 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="6"/>
-      <c r="J138" s="10"/>
-    </row>
-    <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -2678,9 +2783,10 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="10"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+    </row>
+    <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2690,9 +2796,10 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="10"/>
-    </row>
-    <row r="141" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -2702,9 +2809,10 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="10"/>
-    </row>
-    <row r="142" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+    </row>
+    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -2714,9 +2822,10 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="10"/>
-    </row>
-    <row r="143" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+    </row>
+    <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -2726,9 +2835,10 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="6"/>
-      <c r="J143" s="10"/>
-    </row>
-    <row r="144" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+    </row>
+    <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -2738,9 +2848,10 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="6"/>
-      <c r="J144" s="10"/>
-    </row>
-    <row r="145" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -2750,9 +2861,10 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="10"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+    </row>
+    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2762,9 +2874,10 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="10"/>
-    </row>
-    <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+    </row>
+    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -2774,9 +2887,10 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="6"/>
-      <c r="J147" s="10"/>
-    </row>
-    <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+    </row>
+    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -2786,9 +2900,10 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="6"/>
-      <c r="J148" s="10"/>
-    </row>
-    <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+    </row>
+    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -2798,9 +2913,10 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="6"/>
-      <c r="J149" s="10"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+    </row>
+    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -2810,9 +2926,10 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="6"/>
-      <c r="J150" s="10"/>
-    </row>
-    <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -2822,36 +2939,35 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="6"/>
-      <c r="J151" s="10"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B5"/>
-    <mergeCell ref="C1:E5"/>
-    <mergeCell ref="F1:H5"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="3">
+  <tableParts count="1">
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1013FD7-DF1F-4B0D-87E8-E3E17ABF755C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,10 +3047,120 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FAA64D-2D6F-4977-BC32-551FE40EEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC60DA1-D3CB-4211-818E-1F3D09731D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -150,6 +150,9 @@
       <t>FINANCIAL MANAGER</t>
     </r>
   </si>
+  <si>
+    <t>CONFIDENTIAL</t>
+  </si>
 </sst>
 </file>
 
@@ -159,7 +162,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +214,13 @@
       <family val="2"/>
       <charset val="222"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -238,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -264,49 +274,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -357,6 +332,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -368,6 +362,25 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -615,34 +628,34 @@
     <tableColumn id="7" xr3:uid="{DA3F4BA3-8D97-4D9C-A07B-17DA12E9D386}" name="Total Mandays" dataDxfId="17"/>
     <tableColumn id="10" xr3:uid="{0F602BBE-949E-4226-9394-E7F210EB0A74}" name="Total Workhours" dataDxfId="16"/>
     <tableColumn id="8" xr3:uid="{40F9AA7C-6D76-459F-BD6F-DEC9F4066323}" name="Allowances" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{8EA4C805-BD8B-49D9-A49E-A782F6516329}" name="Assignments" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Incentive" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{A41CFEA4-8993-49CF-B59D-9F9ED5B1F01C}" name="Presales" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{DDE35058-6D1E-45B8-BA5A-01608ED024EE}" name="Total" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{8EA4C805-BD8B-49D9-A49E-A782F6516329}" name="Assignments" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{DADFFC8B-9505-4472-B53C-69ACAC61CA0C}" name="Incentive" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{A41CFEA4-8993-49CF-B59D-9F9ED5B1F01C}" name="Presales" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{DDE35058-6D1E-45B8-BA5A-01608ED024EE}" name="Total" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C969BFC9-EC4C-4EEE-A57A-D96C7B9B7191}" name="Table1457" displayName="Table1457" ref="A1:C7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C969BFC9-EC4C-4EEE-A57A-D96C7B9B7191}" name="Table1457" displayName="Table1457" ref="A1:C7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:C7" xr:uid="{C969BFC9-EC4C-4EEE-A57A-D96C7B9B7191}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7A6DC3A2-8668-4493-8B9B-ED539EA07C9E}" name="No" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AAF86543-D55D-4E06-BE8E-6579FC0F9CAE}" name="Location" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7A391600-8DBA-4881-AB97-A319071CFDD8}" name="Fare" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{7A6DC3A2-8668-4493-8B9B-ED539EA07C9E}" name="No" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AAF86543-D55D-4E06-BE8E-6579FC0F9CAE}" name="Location" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7A391600-8DBA-4881-AB97-A319071CFDD8}" name="Fare" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8189F90-0528-4157-8694-DB516E31DC96}" name="Table14567" displayName="Table14567" ref="A10:C18" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C8189F90-0528-4157-8694-DB516E31DC96}" name="Table14567" displayName="Table14567" ref="A10:C18" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
   <autoFilter ref="A10:C18" xr:uid="{C8189F90-0528-4157-8694-DB516E31DC96}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A50AFFEB-DD1B-4B9E-9624-5F16180F136B}" name="No" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C3F8586F-8FF3-4696-9DF0-ABD4D80E5DD2}" name="Role" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4E19748C-7FDD-47A1-BF1E-AF635AF5105C}" name="Fare" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A50AFFEB-DD1B-4B9E-9624-5F16180F136B}" name="No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C3F8586F-8FF3-4696-9DF0-ABD4D80E5DD2}" name="Role" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4E19748C-7FDD-47A1-BF1E-AF635AF5105C}" name="Fare" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -948,7 +961,7 @@
   <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1060,13 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>26</v>
@@ -3293,8 +3313,9 @@
       <c r="M151" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:M5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/template_fm.xlsx
+++ b/public/template_fm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\ess-dev\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC60DA1-D3CB-4211-818E-1F3D09731D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BED294-5112-49D4-BFB4-894470D79499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F4C44D7D-D9B3-4676-816C-EAB61675389E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4C436A-BD0D-441A-8CBC-AD5F6BEE2E28}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,11 +970,11 @@
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
